--- a/region.xlsx
+++ b/region.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="3226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="3227">
   <si>
     <t>ID</t>
   </si>
@@ -9596,119 +9596,125 @@
     <t>新竹市</t>
   </si>
   <si>
+    <t>新竹县</t>
+  </si>
+  <si>
+    <t>苗栗县</t>
+  </si>
+  <si>
+    <t>彰化县</t>
+  </si>
+  <si>
+    <t>云林县</t>
+  </si>
+  <si>
+    <t>嘉义县</t>
+  </si>
+  <si>
+    <t>屏东县</t>
+  </si>
+  <si>
+    <t>宜兰县</t>
+  </si>
+  <si>
+    <t>花莲县</t>
+  </si>
+  <si>
+    <t>台东县</t>
+  </si>
+  <si>
+    <t>澎湖县</t>
+  </si>
+  <si>
+    <t>香港特别行政区</t>
+  </si>
+  <si>
+    <t>下辖地区</t>
+  </si>
+  <si>
+    <t>中西区</t>
+  </si>
+  <si>
+    <t>南区</t>
+  </si>
+  <si>
+    <t>湾仔区</t>
+  </si>
+  <si>
+    <t>九龙区</t>
+  </si>
+  <si>
+    <t>观塘区</t>
+  </si>
+  <si>
+    <t>深水埗区</t>
+  </si>
+  <si>
+    <t>黄大仙区</t>
+  </si>
+  <si>
+    <t>油尖旺区</t>
+  </si>
+  <si>
+    <t>离岛区</t>
+  </si>
+  <si>
+    <t>葵青区</t>
+  </si>
+  <si>
+    <t>北区</t>
+  </si>
+  <si>
+    <t>西贡区</t>
+  </si>
+  <si>
+    <t>沙田区</t>
+  </si>
+  <si>
+    <t>大埔区</t>
+  </si>
+  <si>
+    <t>荃湾区</t>
+  </si>
+  <si>
+    <t>屯门区</t>
+  </si>
+  <si>
+    <t>元朗区</t>
+  </si>
+  <si>
+    <t>澳门特别行政区</t>
+  </si>
+  <si>
+    <t>澳门半岛</t>
+  </si>
+  <si>
+    <t>氹仔岛</t>
+  </si>
+  <si>
+    <t>路环岛</t>
+  </si>
+  <si>
+    <t>路氹城</t>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>嘉义市</t>
-  </si>
-  <si>
-    <t>县级市</t>
-  </si>
-  <si>
-    <t>新竹县</t>
-  </si>
-  <si>
-    <t>苗栗县</t>
-  </si>
-  <si>
-    <t>彰化县</t>
-  </si>
-  <si>
-    <t>云林县</t>
-  </si>
-  <si>
-    <t>嘉义县</t>
-  </si>
-  <si>
-    <t>屏东县</t>
-  </si>
-  <si>
-    <t>宜兰县</t>
-  </si>
-  <si>
-    <t>花莲县</t>
-  </si>
-  <si>
-    <t>台东县</t>
-  </si>
-  <si>
-    <t>澎湖县</t>
-  </si>
-  <si>
-    <t>香港特别行政区</t>
-  </si>
-  <si>
-    <t>下辖地区</t>
-  </si>
-  <si>
-    <t>中西区</t>
-  </si>
-  <si>
-    <t>南区</t>
-  </si>
-  <si>
-    <t>湾仔区</t>
-  </si>
-  <si>
-    <t>九龙区</t>
-  </si>
-  <si>
-    <t>观塘区</t>
-  </si>
-  <si>
-    <t>深水埗区</t>
-  </si>
-  <si>
-    <t>黄大仙区</t>
-  </si>
-  <si>
-    <t>油尖旺区</t>
-  </si>
-  <si>
-    <t>离岛区</t>
-  </si>
-  <si>
-    <t>葵青区</t>
-  </si>
-  <si>
-    <t>北区</t>
-  </si>
-  <si>
-    <t>西贡区</t>
-  </si>
-  <si>
-    <t>沙田区</t>
-  </si>
-  <si>
-    <t>大埔区</t>
-  </si>
-  <si>
-    <t>荃湾区</t>
-  </si>
-  <si>
-    <t>屯门区</t>
-  </si>
-  <si>
-    <t>元朗区</t>
-  </si>
-  <si>
-    <t>澳门特别行政区</t>
-  </si>
-  <si>
-    <t>澳门半岛</t>
-  </si>
-  <si>
-    <t>氹仔岛</t>
-  </si>
-  <si>
-    <t>路环岛</t>
-  </si>
-  <si>
-    <t>路氹城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>县</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9728,6 +9734,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -9753,11 +9766,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9765,6 +9779,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -9784,7 +9866,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -10041,8 +10123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3248" sqref="H3248"/>
+    <sheetView tabSelected="1" topLeftCell="A3219" workbookViewId="0">
+      <selection activeCell="G3240" sqref="G3240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -55268,8 +55350,8 @@
       <c r="A3235" s="1">
         <v>710200</v>
       </c>
-      <c r="B3235" s="1" t="s">
-        <v>5</v>
+      <c r="B3235" s="2" t="s">
+        <v>3224</v>
       </c>
       <c r="C3235" s="1">
         <v>710000</v>
@@ -55310,8 +55392,8 @@
       <c r="A3238" s="1">
         <v>710203</v>
       </c>
-      <c r="B3238" s="1" t="s">
-        <v>3190</v>
+      <c r="B3238" s="2" t="s">
+        <v>3225</v>
       </c>
       <c r="C3238" s="1">
         <v>710200</v>
@@ -55324,8 +55406,8 @@
       <c r="A3239" s="1">
         <v>710300</v>
       </c>
-      <c r="B3239" s="1" t="s">
-        <v>3191</v>
+      <c r="B3239" s="2" t="s">
+        <v>3226</v>
       </c>
       <c r="C3239" s="1">
         <v>710000</v>
@@ -55339,7 +55421,7 @@
         <v>710301</v>
       </c>
       <c r="B3240" s="1" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="C3240" s="1">
         <v>710300</v>
@@ -55353,7 +55435,7 @@
         <v>710302</v>
       </c>
       <c r="B3241" s="1" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="C3241" s="1">
         <v>710300</v>
@@ -55367,7 +55449,7 @@
         <v>710303</v>
       </c>
       <c r="B3242" s="1" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="C3242" s="1">
         <v>710300</v>
@@ -55381,7 +55463,7 @@
         <v>710304</v>
       </c>
       <c r="B3243" s="1" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="C3243" s="1">
         <v>710300</v>
@@ -55395,7 +55477,7 @@
         <v>710306</v>
       </c>
       <c r="B3244" s="1" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="C3244" s="1">
         <v>710300</v>
@@ -55409,7 +55491,7 @@
         <v>710307</v>
       </c>
       <c r="B3245" s="1" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="C3245" s="1">
         <v>710300</v>
@@ -55423,7 +55505,7 @@
         <v>710308</v>
       </c>
       <c r="B3246" s="1" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="C3246" s="1">
         <v>710300</v>
@@ -55437,7 +55519,7 @@
         <v>710309</v>
       </c>
       <c r="B3247" s="1" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="C3247" s="1">
         <v>710300</v>
@@ -55451,7 +55533,7 @@
         <v>710310</v>
       </c>
       <c r="B3248" s="1" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="C3248" s="1">
         <v>710300</v>
@@ -55465,7 +55547,7 @@
         <v>710311</v>
       </c>
       <c r="B3249" s="1" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="C3249" s="1">
         <v>710300</v>
@@ -55507,7 +55589,7 @@
         <v>810000</v>
       </c>
       <c r="B3252" s="1" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="C3252" s="1"/>
       <c r="D3252" s="1">
@@ -55519,7 +55601,7 @@
         <v>810100</v>
       </c>
       <c r="B3253" s="1" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="C3253" s="1">
         <v>810000</v>
@@ -55533,7 +55615,7 @@
         <v>810101</v>
       </c>
       <c r="B3254" s="1" t="s">
-        <v>3204</v>
+        <v>3202</v>
       </c>
       <c r="C3254" s="1">
         <v>810100</v>
@@ -55561,7 +55643,7 @@
         <v>810103</v>
       </c>
       <c r="B3256" s="1" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="C3256" s="1">
         <v>810100</v>
@@ -55575,7 +55657,7 @@
         <v>810104</v>
       </c>
       <c r="B3257" s="1" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="C3257" s="1">
         <v>810100</v>
@@ -55589,7 +55671,7 @@
         <v>810105</v>
       </c>
       <c r="B3258" s="1" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
       <c r="C3258" s="1">
         <v>810100</v>
@@ -55603,7 +55685,7 @@
         <v>810106</v>
       </c>
       <c r="B3259" s="1" t="s">
-        <v>3208</v>
+        <v>3206</v>
       </c>
       <c r="C3259" s="1">
         <v>810100</v>
@@ -55617,7 +55699,7 @@
         <v>810107</v>
       </c>
       <c r="B3260" s="1" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="C3260" s="1">
         <v>810100</v>
@@ -55631,7 +55713,7 @@
         <v>810108</v>
       </c>
       <c r="B3261" s="1" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="C3261" s="1">
         <v>810100</v>
@@ -55645,7 +55727,7 @@
         <v>810109</v>
       </c>
       <c r="B3262" s="1" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="C3262" s="1">
         <v>810100</v>
@@ -55659,7 +55741,7 @@
         <v>810110</v>
       </c>
       <c r="B3263" s="1" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="C3263" s="1">
         <v>810100</v>
@@ -55673,7 +55755,7 @@
         <v>810111</v>
       </c>
       <c r="B3264" s="1" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="C3264" s="1">
         <v>810100</v>
@@ -55687,7 +55769,7 @@
         <v>810112</v>
       </c>
       <c r="B3265" s="1" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="C3265" s="1">
         <v>810100</v>
@@ -55701,7 +55783,7 @@
         <v>810113</v>
       </c>
       <c r="B3266" s="1" t="s">
-        <v>3215</v>
+        <v>3213</v>
       </c>
       <c r="C3266" s="1">
         <v>810100</v>
@@ -55715,7 +55797,7 @@
         <v>810114</v>
       </c>
       <c r="B3267" s="1" t="s">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="C3267" s="1">
         <v>810100</v>
@@ -55729,7 +55811,7 @@
         <v>810115</v>
       </c>
       <c r="B3268" s="1" t="s">
-        <v>3217</v>
+        <v>3215</v>
       </c>
       <c r="C3268" s="1">
         <v>810100</v>
@@ -55743,7 +55825,7 @@
         <v>810116</v>
       </c>
       <c r="B3269" s="1" t="s">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="C3269" s="1">
         <v>810100</v>
@@ -55757,7 +55839,7 @@
         <v>810117</v>
       </c>
       <c r="B3270" s="1" t="s">
-        <v>3219</v>
+        <v>3217</v>
       </c>
       <c r="C3270" s="1">
         <v>810100</v>
@@ -55771,7 +55853,7 @@
         <v>810118</v>
       </c>
       <c r="B3271" s="1" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="C3271" s="1">
         <v>810100</v>
@@ -55785,7 +55867,7 @@
         <v>820000</v>
       </c>
       <c r="B3272" s="1" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="C3272" s="1"/>
       <c r="D3272" s="1">
@@ -55797,7 +55879,7 @@
         <v>820100</v>
       </c>
       <c r="B3273" s="1" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="C3273" s="1">
         <v>820000</v>
@@ -55811,7 +55893,7 @@
         <v>820101</v>
       </c>
       <c r="B3274" s="1" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="C3274" s="1">
         <v>820100</v>
@@ -55825,7 +55907,7 @@
         <v>820102</v>
       </c>
       <c r="B3275" s="1" t="s">
-        <v>3223</v>
+        <v>3221</v>
       </c>
       <c r="C3275" s="1">
         <v>820100</v>
@@ -55839,7 +55921,7 @@
         <v>820103</v>
       </c>
       <c r="B3276" s="1" t="s">
-        <v>3224</v>
+        <v>3222</v>
       </c>
       <c r="C3276" s="1">
         <v>820100</v>
@@ -55853,7 +55935,7 @@
         <v>820104</v>
       </c>
       <c r="B3277" s="1" t="s">
-        <v>3225</v>
+        <v>3223</v>
       </c>
       <c r="C3277" s="1">
         <v>820100</v>
@@ -55865,5 +55947,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/region.xlsx
+++ b/region.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\wwwroot\default\region\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\wwwroot\default\Region\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9714,7 +9714,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9734,13 +9734,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -9766,12 +9759,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10123,8 +10115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3219" workbookViewId="0">
-      <selection activeCell="G3240" sqref="G3240"/>
+    <sheetView tabSelected="1" topLeftCell="A3231" workbookViewId="0">
+      <selection activeCell="F3239" sqref="F3239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -55350,7 +55342,7 @@
       <c r="A3235" s="1">
         <v>710200</v>
       </c>
-      <c r="B3235" s="2" t="s">
+      <c r="B3235" s="1" t="s">
         <v>3224</v>
       </c>
       <c r="C3235" s="1">
@@ -55392,7 +55384,7 @@
       <c r="A3238" s="1">
         <v>710203</v>
       </c>
-      <c r="B3238" s="2" t="s">
+      <c r="B3238" s="1" t="s">
         <v>3225</v>
       </c>
       <c r="C3238" s="1">
@@ -55406,7 +55398,7 @@
       <c r="A3239" s="1">
         <v>710300</v>
       </c>
-      <c r="B3239" s="2" t="s">
+      <c r="B3239" s="1" t="s">
         <v>3226</v>
       </c>
       <c r="C3239" s="1">
